--- a/Counting C&Look DB.xlsx
+++ b/Counting C&Look DB.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucca\Desktop\Repositórios GitHub\CnLook_Clustering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Repositories\CnLook_Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FF39B3-B2A3-42DF-BCFD-03DEF06C8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C25C2-A79C-4145-B0EA-27F995B80C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="12" r:id="rId1"/>
-    <sheet name="Subjects" sheetId="13" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="14" r:id="rId3"/>
+    <sheet name="Tasks By ID" sheetId="15" r:id="rId2"/>
+    <sheet name="Subjects" sheetId="13" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="14" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -967,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="301">
   <si>
     <t>Text: Golden_goose_1</t>
   </si>
@@ -1819,6 +1820,57 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Task Id</t>
+  </si>
+  <si>
+    <t>N_records</t>
+  </si>
+  <si>
+    <t>Task Names</t>
+  </si>
+  <si>
+    <t>"Horizontal" &amp; "Horizontal, 10 fixations"</t>
+  </si>
+  <si>
+    <t>"Horizontal2" &amp; "Horizontal2 Smooth"</t>
+  </si>
+  <si>
+    <t>"Reading: Two_letter_syllables_short" &amp; "Reading: Two_letter_syllables_short"</t>
+  </si>
+  <si>
+    <t>"Vertical"</t>
+  </si>
+  <si>
+    <t>"DiagonalLeftAndBack"</t>
+  </si>
+  <si>
+    <t>"DiagonalRightAndBack"</t>
+  </si>
+  <si>
+    <t>"Horizontal" &amp; "Horizontal Smooth"</t>
+  </si>
+  <si>
+    <t>"Easy_Swahili_Syllables"</t>
+  </si>
+  <si>
+    <t>"Horizontal"</t>
+  </si>
+  <si>
+    <t>"Vertical, 10 fixations"</t>
+  </si>
+  <si>
+    <t>"DiagonalRightAndBack, 10 fixations"</t>
+  </si>
+  <si>
+    <t>"DiagonalLeftAndBack, 10 fixations"</t>
+  </si>
+  <si>
+    <t>"DiagonalLeftAndBack Smooth"</t>
+  </si>
+  <si>
+    <t>"DiagonalRightAndBack Smooth"</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2436,33 +2488,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2485,6 +2510,75 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3653,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E63C6D2-241C-4155-9C99-E8FACD71DC3D}">
   <dimension ref="B4:AI133"/>
   <sheetViews>
-    <sheetView topLeftCell="W7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3692,42 +3786,42 @@
     <row r="4" spans="2:35" ht="95.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="104" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="104" t="s">
+      <c r="I8" s="113"/>
+      <c r="J8" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="104" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="105"/>
-      <c r="N8" s="104" t="s">
+      <c r="M8" s="113"/>
+      <c r="N8" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="100" t="s">
+      <c r="O8" s="114"/>
+      <c r="P8" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="100" t="s">
+      <c r="Q8" s="111"/>
+      <c r="R8" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="100" t="s">
+      <c r="S8" s="111"/>
+      <c r="T8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="102"/>
-      <c r="V8" s="100" t="s">
+      <c r="U8" s="110"/>
+      <c r="V8" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="101"/>
+      <c r="W8" s="111"/>
     </row>
     <row r="9" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="51" t="s">
@@ -4136,13 +4230,13 @@
       <c r="W16" s="5"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
-      <c r="AF16" s="109">
+      <c r="AF16" s="100">
         <v>2515</v>
       </c>
       <c r="AG16" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="AH16" s="109">
+      <c r="AH16" s="100">
         <v>423</v>
       </c>
       <c r="AI16" s="14"/>
@@ -4182,13 +4276,13 @@
       <c r="W17" s="5"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
-      <c r="AF17" s="109">
+      <c r="AF17" s="100">
         <v>2511</v>
       </c>
       <c r="AG17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AH17" s="109">
+      <c r="AH17" s="100">
         <v>347</v>
       </c>
       <c r="AI17" s="14"/>
@@ -4236,13 +4330,13 @@
       <c r="W18" s="15"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
-      <c r="AF18" s="109">
+      <c r="AF18" s="100">
         <v>3218</v>
       </c>
       <c r="AG18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AH18" s="109">
+      <c r="AH18" s="100">
         <v>224</v>
       </c>
       <c r="AI18" s="14"/>
@@ -4298,13 +4392,13 @@
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="AF19" s="109">
+      <c r="AF19" s="100">
         <v>1003</v>
       </c>
       <c r="AG19" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AH19" s="109">
+      <c r="AH19" s="100">
         <v>210</v>
       </c>
       <c r="AI19" s="14"/>
@@ -4345,13 +4439,13 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="109">
+      <c r="AF20" s="100">
         <v>1004</v>
       </c>
       <c r="AG20" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="AH20" s="109">
+      <c r="AH20" s="100">
         <v>210</v>
       </c>
       <c r="AI20" s="14"/>
@@ -4391,13 +4485,13 @@
       <c r="W21" s="5"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="AF21" s="110">
+      <c r="AF21" s="101">
         <v>5130</v>
       </c>
       <c r="AG21" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="AH21" s="110">
+      <c r="AH21" s="101">
         <v>210</v>
       </c>
       <c r="AI21" s="14"/>
@@ -7011,44 +7105,44 @@
       <c r="B89" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="104" t="s">
+      <c r="F89" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="G89" s="105"/>
-      <c r="H89" s="104" t="s">
+      <c r="G89" s="113"/>
+      <c r="H89" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="105"/>
-      <c r="J89" s="104" t="s">
+      <c r="I89" s="113"/>
+      <c r="J89" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="105"/>
-      <c r="L89" s="104" t="s">
+      <c r="K89" s="113"/>
+      <c r="L89" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="M89" s="105"/>
-      <c r="N89" s="104" t="s">
+      <c r="M89" s="113"/>
+      <c r="N89" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="O89" s="106"/>
-      <c r="P89" s="100" t="s">
+      <c r="O89" s="114"/>
+      <c r="P89" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="Q89" s="101"/>
-      <c r="R89" s="100" t="s">
+      <c r="Q89" s="111"/>
+      <c r="R89" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="S89" s="101"/>
-      <c r="T89" s="100" t="s">
+      <c r="S89" s="111"/>
+      <c r="T89" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="U89" s="102"/>
-      <c r="V89" s="100" t="s">
+      <c r="U89" s="110"/>
+      <c r="V89" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="W89" s="101"/>
-      <c r="X89" s="103"/>
-      <c r="Y89" s="103"/>
+      <c r="W89" s="111"/>
+      <c r="X89" s="115"/>
+      <c r="Y89" s="115"/>
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
     </row>
@@ -9171,6 +9265,16 @@
     <sortCondition ref="B10:B79"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="P8:Q8"/>
@@ -9180,16 +9284,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9199,6 +9293,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB419-1B8C-467B-87EE-1FBB4624B23C}">
+  <dimension ref="G6:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="126">
+        <v>2515</v>
+      </c>
+      <c r="J8" s="118">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="123" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="127">
+        <v>2511</v>
+      </c>
+      <c r="J9" s="118">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" s="127">
+        <v>3218</v>
+      </c>
+      <c r="J10" s="118">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="123" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" s="127">
+        <v>1003</v>
+      </c>
+      <c r="J11" s="118">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" s="127">
+        <v>1004</v>
+      </c>
+      <c r="J12" s="118">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" s="127">
+        <v>5130</v>
+      </c>
+      <c r="J13" s="118">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="127">
+        <v>5131</v>
+      </c>
+      <c r="J14" s="118">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" s="127">
+        <v>2510</v>
+      </c>
+      <c r="J15" s="118">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="123" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="127">
+        <v>1964</v>
+      </c>
+      <c r="J16" s="118">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="127">
+        <v>1005</v>
+      </c>
+      <c r="J17" s="118">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="I18" s="127">
+        <v>1006</v>
+      </c>
+      <c r="J18" s="118">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="127">
+        <v>973</v>
+      </c>
+      <c r="J19" s="118">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="127">
+        <v>2509</v>
+      </c>
+      <c r="J20" s="118">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="123" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="127">
+        <v>2508</v>
+      </c>
+      <c r="J21" s="118">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="127">
+        <v>5218</v>
+      </c>
+      <c r="J22" s="118">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="128">
+        <v>5142</v>
+      </c>
+      <c r="J23" s="119">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82919BA3-099A-414C-AF8B-EA89BAA9CE4F}">
   <dimension ref="B1:AN133"/>
   <sheetViews>
@@ -9243,66 +9546,66 @@
   <sheetData>
     <row r="1" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="108"/>
+      <c r="K2" s="117"/>
       <c r="L2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="108"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="107" t="s">
+      <c r="R2" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="117"/>
       <c r="T2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="107" t="s">
+      <c r="V2" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="W2" s="108"/>
+      <c r="W2" s="117"/>
       <c r="X2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="107" t="s">
+      <c r="Z2" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="108"/>
+      <c r="AA2" s="117"/>
       <c r="AB2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="107" t="s">
+      <c r="AD2" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="108"/>
+      <c r="AE2" s="117"/>
       <c r="AF2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="107" t="s">
+      <c r="AH2" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="108"/>
+      <c r="AI2" s="117"/>
       <c r="AJ2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="107" t="s">
+      <c r="AL2" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="108"/>
+      <c r="AM2" s="117"/>
       <c r="AN2" s="55" t="s">
         <v>86</v>
       </c>
@@ -11096,7 +11399,7 @@
       </c>
     </row>
     <row r="27" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="102" t="s">
         <v>269</v>
       </c>
       <c r="C27" s="47" t="s">
@@ -11145,7 +11448,7 @@
       <c r="B28" s="2">
         <v>161</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="104">
         <v>139</v>
       </c>
       <c r="F28" s="3">
@@ -11194,7 +11497,7 @@
       <c r="B29" s="3">
         <v>133</v>
       </c>
-      <c r="C29" s="109">
+      <c r="C29" s="100">
         <v>129</v>
       </c>
       <c r="F29" s="3">
@@ -11240,7 +11543,7 @@
       <c r="B30" s="3">
         <v>122</v>
       </c>
-      <c r="C30" s="109">
+      <c r="C30" s="100">
         <v>129</v>
       </c>
       <c r="F30" s="3">
@@ -11286,7 +11589,7 @@
       <c r="B31" s="3">
         <v>132</v>
       </c>
-      <c r="C31" s="109">
+      <c r="C31" s="100">
         <v>129</v>
       </c>
       <c r="F31" s="3">
@@ -11326,7 +11629,7 @@
       <c r="B32" s="3">
         <v>127</v>
       </c>
-      <c r="C32" s="109">
+      <c r="C32" s="100">
         <v>127</v>
       </c>
       <c r="F32" s="3">
@@ -11360,7 +11663,7 @@
       <c r="B33" s="6">
         <v>239</v>
       </c>
-      <c r="C33" s="110">
+      <c r="C33" s="101">
         <v>122</v>
       </c>
       <c r="F33" s="3">
@@ -13323,12 +13626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D60CAF6-4CB0-4963-BE89-E20C75FEF9DA}">
   <dimension ref="H10:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13341,39 +13644,39 @@
     </row>
     <row r="13" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="102">
         <v>1</v>
       </c>
-      <c r="J14" s="114">
+      <c r="J14" s="105">
         <v>2</v>
       </c>
-      <c r="K14" s="114">
+      <c r="K14" s="105">
         <v>3</v>
       </c>
-      <c r="L14" s="114">
+      <c r="L14" s="105">
         <v>4</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="105">
         <v>5</v>
       </c>
-      <c r="N14" s="114">
+      <c r="N14" s="105">
         <v>6</v>
       </c>
-      <c r="O14" s="114">
+      <c r="O14" s="105">
         <v>7</v>
       </c>
-      <c r="P14" s="114">
+      <c r="P14" s="105">
         <v>8</v>
       </c>
-      <c r="Q14" s="112">
+      <c r="Q14" s="103">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="106" t="s">
         <v>270</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -13405,7 +13708,7 @@
       </c>
     </row>
     <row r="16" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="107" t="s">
         <v>271</v>
       </c>
       <c r="I16" s="6" t="s">

--- a/Counting C&Look DB.xlsx
+++ b/Counting C&Look DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Repositories\CnLook_Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C25C2-A79C-4145-B0EA-27F995B80C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1500FD-C739-46F0-88A0-915D82C73CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="12" r:id="rId1"/>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="303">
   <si>
     <t>Text: Golden_goose_1</t>
   </si>
@@ -1871,6 +1871,12 @@
   </si>
   <si>
     <t>"DiagonalRightAndBack Smooth"</t>
+  </si>
+  <si>
+    <t>Regarding Fixations Positions</t>
+  </si>
+  <si>
+    <t>from https://www.mdpi.com/2076-3417/11/13/6157/htm</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1926,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2032,6 +2038,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2217,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2511,33 +2523,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2580,6 +2565,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3747,83 +3760,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E63C6D2-241C-4155-9C99-E8FACD71DC3D}">
   <dimension ref="B4:AI133"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:35" ht="95.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="112" t="s">
+    <row r="4" spans="2:35" ht="95.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="112" t="s">
+      <c r="G8" s="127"/>
+      <c r="H8" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="112" t="s">
+      <c r="I8" s="127"/>
+      <c r="J8" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="112" t="s">
+      <c r="K8" s="127"/>
+      <c r="L8" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="112" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="109" t="s">
+      <c r="O8" s="128"/>
+      <c r="P8" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="109" t="s">
+      <c r="Q8" s="125"/>
+      <c r="R8" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="109" t="s">
+      <c r="S8" s="125"/>
+      <c r="T8" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="110"/>
-      <c r="V8" s="109" t="s">
+      <c r="U8" s="124"/>
+      <c r="V8" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="111"/>
-    </row>
-    <row r="9" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="125"/>
+    </row>
+    <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="51" t="s">
         <v>78</v>
       </c>
@@ -3893,7 +3906,7 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="14"/>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" s="71" t="s">
         <v>16</v>
       </c>
@@ -3933,7 +3946,7 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
@@ -3973,7 +3986,7 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
         <v>67</v>
       </c>
@@ -4029,7 +4042,7 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>63</v>
       </c>
@@ -4081,7 +4094,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4146,7 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
@@ -4195,7 +4208,7 @@
       </c>
       <c r="AI15" s="14"/>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>43</v>
       </c>
@@ -4241,7 +4254,7 @@
       </c>
       <c r="AI16" s="14"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>45</v>
       </c>
@@ -4287,7 +4300,7 @@
       </c>
       <c r="AI17" s="14"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>59</v>
       </c>
@@ -4341,7 +4354,7 @@
       </c>
       <c r="AI18" s="14"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>20</v>
       </c>
@@ -4403,7 +4416,7 @@
       </c>
       <c r="AI19" s="14"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>36</v>
       </c>
@@ -4450,7 +4463,7 @@
       </c>
       <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4509,7 @@
       </c>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>13</v>
       </c>
@@ -4535,7 +4548,7 @@
       <c r="AG22" s="37"/>
       <c r="AH22" s="37"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +4589,7 @@
       <c r="AH23" s="37"/>
       <c r="AI23" s="38"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>61</v>
       </c>
@@ -4617,7 +4630,7 @@
       <c r="AH24" s="37"/>
       <c r="AI24" s="38"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>50</v>
       </c>
@@ -4658,7 +4671,7 @@
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>48</v>
       </c>
@@ -4707,7 +4720,7 @@
       <c r="AH26" s="38"/>
       <c r="AI26" s="38"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
         <v>8</v>
       </c>
@@ -4748,7 +4761,7 @@
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>34</v>
       </c>
@@ -4789,7 +4802,7 @@
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4859,7 @@
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>38</v>
       </c>
@@ -4903,7 +4916,7 @@
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>62</v>
       </c>
@@ -4944,7 +4957,7 @@
       <c r="AH31" s="38"/>
       <c r="AI31" s="38"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
         <v>1</v>
       </c>
@@ -4985,7 +4998,7 @@
       <c r="AH32" s="38"/>
       <c r="AI32" s="38"/>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>14</v>
       </c>
@@ -5026,7 +5039,7 @@
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
         <v>66</v>
       </c>
@@ -5062,7 +5075,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>58</v>
       </c>
@@ -5114,7 +5127,7 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>9</v>
       </c>
@@ -5166,7 +5179,7 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
         <v>55</v>
       </c>
@@ -5202,7 +5215,7 @@
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>53</v>
       </c>
@@ -5246,7 +5259,7 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>27</v>
       </c>
@@ -5294,7 +5307,7 @@
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="28" t="s">
         <v>40</v>
       </c>
@@ -5346,7 +5359,7 @@
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
         <v>41</v>
       </c>
@@ -5406,7 +5419,7 @@
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>15</v>
       </c>
@@ -5450,7 +5463,7 @@
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>39</v>
       </c>
@@ -5498,7 +5511,7 @@
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>26</v>
       </c>
@@ -5550,7 +5563,7 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>19</v>
       </c>
@@ -5610,7 +5623,7 @@
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
         <v>57</v>
       </c>
@@ -5654,7 +5667,7 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>44</v>
       </c>
@@ -5694,7 +5707,7 @@
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>24</v>
       </c>
@@ -5734,7 +5747,7 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="28" t="s">
         <v>2</v>
       </c>
@@ -5782,7 +5795,7 @@
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="28" t="s">
         <v>42</v>
       </c>
@@ -5842,7 +5855,7 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="28" t="s">
         <v>65</v>
       </c>
@@ -5902,7 +5915,7 @@
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
         <v>22</v>
       </c>
@@ -5950,7 +5963,7 @@
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="28" t="s">
         <v>23</v>
       </c>
@@ -6010,7 +6023,7 @@
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="28" t="s">
         <v>30</v>
       </c>
@@ -6050,7 +6063,7 @@
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>60</v>
       </c>
@@ -6090,7 +6103,7 @@
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
         <v>54</v>
       </c>
@@ -6130,7 +6143,7 @@
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="28" t="s">
         <v>21</v>
       </c>
@@ -6170,7 +6183,7 @@
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>11</v>
       </c>
@@ -6210,7 +6223,7 @@
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
@@ -6250,7 +6263,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="28" t="s">
         <v>46</v>
       </c>
@@ -6290,7 +6303,7 @@
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="28" t="s">
         <v>29</v>
       </c>
@@ -6334,7 +6347,7 @@
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="28" t="s">
         <v>33</v>
       </c>
@@ -6374,7 +6387,7 @@
       <c r="X62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
         <v>51</v>
       </c>
@@ -6414,7 +6427,7 @@
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="28" t="s">
         <v>18</v>
       </c>
@@ -6454,7 +6467,7 @@
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="28" t="s">
         <v>10</v>
       </c>
@@ -6494,7 +6507,7 @@
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
         <v>64</v>
       </c>
@@ -6530,7 +6543,7 @@
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
         <v>3</v>
       </c>
@@ -6566,7 +6579,7 @@
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
         <v>25</v>
       </c>
@@ -6602,7 +6615,7 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="29" t="s">
         <v>17</v>
       </c>
@@ -6638,7 +6651,7 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
         <v>0</v>
       </c>
@@ -6674,7 +6687,7 @@
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="29" t="s">
         <v>49</v>
       </c>
@@ -6710,7 +6723,7 @@
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
         <v>52</v>
       </c>
@@ -6746,7 +6759,7 @@
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
         <v>35</v>
       </c>
@@ -6782,7 +6795,7 @@
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
         <v>47</v>
       </c>
@@ -6822,7 +6835,7 @@
       <c r="X74" s="14"/>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
         <v>31</v>
       </c>
@@ -6866,7 +6879,7 @@
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
         <v>56</v>
       </c>
@@ -6914,7 +6927,7 @@
       <c r="X76" s="14"/>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
         <v>6</v>
       </c>
@@ -6974,7 +6987,7 @@
       <c r="X77" s="14"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="30" t="s">
         <v>12</v>
       </c>
@@ -7010,7 +7023,7 @@
       <c r="X78" s="14"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="38"/>
       <c r="C79" s="77">
         <f>SUM(C10:C78)</f>
@@ -7088,65 +7101,65 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X87" s="24"/>
       <c r="Y87" s="24"/>
       <c r="Z87" s="24"/>
       <c r="AA87" s="24"/>
     </row>
-    <row r="88" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="112" t="s">
+      <c r="F89" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G89" s="113"/>
-      <c r="H89" s="112" t="s">
+      <c r="G89" s="127"/>
+      <c r="H89" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="113"/>
-      <c r="J89" s="112" t="s">
+      <c r="I89" s="127"/>
+      <c r="J89" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="113"/>
-      <c r="L89" s="112" t="s">
+      <c r="K89" s="127"/>
+      <c r="L89" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="M89" s="113"/>
-      <c r="N89" s="112" t="s">
+      <c r="M89" s="127"/>
+      <c r="N89" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="O89" s="114"/>
-      <c r="P89" s="109" t="s">
+      <c r="O89" s="128"/>
+      <c r="P89" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="Q89" s="111"/>
-      <c r="R89" s="109" t="s">
+      <c r="Q89" s="125"/>
+      <c r="R89" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="S89" s="111"/>
-      <c r="T89" s="109" t="s">
+      <c r="S89" s="125"/>
+      <c r="T89" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="U89" s="110"/>
-      <c r="V89" s="109" t="s">
+      <c r="U89" s="124"/>
+      <c r="V89" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="W89" s="111"/>
-      <c r="X89" s="115"/>
-      <c r="Y89" s="115"/>
+      <c r="W89" s="125"/>
+      <c r="X89" s="129"/>
+      <c r="Y89" s="129"/>
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
     </row>
-    <row r="90" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="51" t="s">
         <v>78</v>
       </c>
@@ -7220,7 +7233,7 @@
       <c r="AE90" s="24"/>
       <c r="AF90" s="70"/>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="80" t="s">
         <v>32</v>
       </c>
@@ -7259,7 +7272,7 @@
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="81" t="s">
         <v>67</v>
       </c>
@@ -7314,7 +7327,7 @@
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="56" t="s">
         <v>63</v>
       </c>
@@ -7365,7 +7378,7 @@
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="56" t="s">
         <v>68</v>
       </c>
@@ -7416,7 +7429,7 @@
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="56" t="s">
         <v>28</v>
       </c>
@@ -7467,7 +7480,7 @@
       <c r="X95" s="14"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="56" t="s">
         <v>59</v>
       </c>
@@ -7510,7 +7523,7 @@
       <c r="X96" s="14"/>
       <c r="Y96" s="14"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="56" t="s">
         <v>20</v>
       </c>
@@ -7561,7 +7574,7 @@
       <c r="X97" s="14"/>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="56" t="s">
         <v>48</v>
       </c>
@@ -7604,7 +7617,7 @@
       <c r="X98" s="14"/>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="56" t="s">
         <v>5</v>
       </c>
@@ -7655,7 +7668,7 @@
       <c r="X99" s="14"/>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="56" t="s">
         <v>38</v>
       </c>
@@ -7706,7 +7719,7 @@
       <c r="X100" s="14"/>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="56" t="s">
         <v>58</v>
       </c>
@@ -7757,7 +7770,7 @@
       <c r="X101" s="14"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="56" t="s">
         <v>9</v>
       </c>
@@ -7808,7 +7821,7 @@
       <c r="X102" s="14"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="56" t="s">
         <v>53</v>
       </c>
@@ -7851,7 +7864,7 @@
       <c r="X103" s="14"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="56" t="s">
         <v>27</v>
       </c>
@@ -7898,7 +7911,7 @@
       <c r="X104" s="14"/>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="56" t="s">
         <v>40</v>
       </c>
@@ -7949,7 +7962,7 @@
       <c r="X105" s="14"/>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="56" t="s">
         <v>41</v>
       </c>
@@ -8008,7 +8021,7 @@
       <c r="X106" s="14"/>
       <c r="Y106" s="14"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="56" t="s">
         <v>15</v>
       </c>
@@ -8051,7 +8064,7 @@
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="56" t="s">
         <v>39</v>
       </c>
@@ -8098,7 +8111,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="56" t="s">
         <v>26</v>
       </c>
@@ -8149,7 +8162,7 @@
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="56" t="s">
         <v>19</v>
       </c>
@@ -8208,7 +8221,7 @@
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="56" t="s">
         <v>57</v>
       </c>
@@ -8251,7 +8264,7 @@
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="56" t="s">
         <v>2</v>
       </c>
@@ -8298,7 +8311,7 @@
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="56" t="s">
         <v>42</v>
       </c>
@@ -8357,7 +8370,7 @@
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B114" s="56" t="s">
         <v>65</v>
       </c>
@@ -8416,7 +8429,7 @@
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B115" s="56" t="s">
         <v>22</v>
       </c>
@@ -8463,7 +8476,7 @@
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B116" s="56" t="s">
         <v>23</v>
       </c>
@@ -8522,7 +8535,7 @@
       <c r="X116" s="14"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B117" s="56" t="s">
         <v>30</v>
       </c>
@@ -8561,7 +8574,7 @@
       <c r="X117" s="14"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B118" s="56" t="s">
         <v>60</v>
       </c>
@@ -8600,7 +8613,7 @@
       <c r="X118" s="14"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B119" s="56" t="s">
         <v>54</v>
       </c>
@@ -8639,7 +8652,7 @@
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="56" t="s">
         <v>21</v>
       </c>
@@ -8678,7 +8691,7 @@
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B121" s="56" t="s">
         <v>11</v>
       </c>
@@ -8717,7 +8730,7 @@
       <c r="X121" s="14"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B122" s="56" t="s">
         <v>37</v>
       </c>
@@ -8756,7 +8769,7 @@
       <c r="X122" s="14"/>
       <c r="Y122" s="14"/>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B123" s="56" t="s">
         <v>46</v>
       </c>
@@ -8795,7 +8808,7 @@
       <c r="X123" s="14"/>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B124" s="56" t="s">
         <v>29</v>
       </c>
@@ -8838,7 +8851,7 @@
       <c r="X124" s="14"/>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B125" s="56" t="s">
         <v>33</v>
       </c>
@@ -8877,7 +8890,7 @@
       <c r="X125" s="14"/>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B126" s="56" t="s">
         <v>51</v>
       </c>
@@ -8916,7 +8929,7 @@
       <c r="X126" s="14"/>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="56" t="s">
         <v>18</v>
       </c>
@@ -8955,7 +8968,7 @@
       <c r="X127" s="14"/>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B128" s="56" t="s">
         <v>10</v>
       </c>
@@ -8994,7 +9007,7 @@
       <c r="X128" s="14"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B129" s="56" t="s">
         <v>47</v>
       </c>
@@ -9033,7 +9046,7 @@
       <c r="X129" s="14"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B130" s="56" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9089,7 @@
       <c r="X130" s="14"/>
       <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B131" s="56" t="s">
         <v>56</v>
       </c>
@@ -9123,7 +9136,7 @@
       <c r="X131" s="14"/>
       <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="57" t="s">
         <v>6</v>
       </c>
@@ -9182,7 +9195,7 @@
       <c r="X132" s="14"/>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="38"/>
       <c r="C133" s="77">
         <f>SUM(C91:C132)</f>
@@ -9294,205 +9307,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB419-1B8C-467B-87EE-1FBB4624B23C}">
-  <dimension ref="G6:J23"/>
+  <dimension ref="H6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="44.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="120" t="s">
+    <row r="6" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="112" t="s">
         <v>284</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="113" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="131" t="s">
+    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I8" s="117">
         <v>2515</v>
       </c>
-      <c r="J8" s="118">
+      <c r="J8" s="109">
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="8:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="123" t="s">
+    <row r="9" spans="8:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="118">
         <v>2511</v>
       </c>
-      <c r="J9" s="118">
+      <c r="J9" s="109">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="8:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="H10" s="124" t="s">
+    <row r="10" spans="8:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="118">
         <v>3218</v>
       </c>
-      <c r="J10" s="118">
+      <c r="J10" s="109">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="123" t="s">
+    <row r="11" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="118">
         <v>1003</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="109">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="129" t="s">
+    <row r="12" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="I12" s="127">
+      <c r="I12" s="118">
         <v>1004</v>
       </c>
-      <c r="J12" s="118">
+      <c r="J12" s="109">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="123" t="s">
+    <row r="13" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="118">
         <v>5130</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J13" s="109">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="129" t="s">
+    <row r="14" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="118">
         <v>5131</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J14" s="109">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="130" t="s">
+    <row r="15" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="118">
         <v>2510</v>
       </c>
-      <c r="J15" s="118">
+      <c r="J15" s="109">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H16" s="123" t="s">
+    <row r="16" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="I16" s="127">
+      <c r="I16" s="118">
         <v>1964</v>
       </c>
-      <c r="J16" s="118">
+      <c r="J16" s="109">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H17" s="123" t="s">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="118">
         <v>1005</v>
       </c>
-      <c r="J17" s="118">
+      <c r="J17" s="109">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="130" t="s">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="118">
         <v>1006</v>
       </c>
-      <c r="J18" s="118">
+      <c r="J18" s="109">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="123" t="s">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="114" t="s">
         <v>296</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="118">
         <v>973</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J19" s="109">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="123" t="s">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="I20" s="127">
+      <c r="I20" s="118">
         <v>2509</v>
       </c>
-      <c r="J20" s="118">
+      <c r="J20" s="109">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="123" t="s">
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="114" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="127">
+      <c r="I21" s="118">
         <v>2508</v>
       </c>
-      <c r="J21" s="118">
+      <c r="J21" s="109">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="123" t="s">
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="114" t="s">
         <v>299</v>
       </c>
-      <c r="I22" s="127">
+      <c r="I22" s="118">
         <v>5218</v>
       </c>
-      <c r="J22" s="118">
+      <c r="J22" s="109">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="8:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="125" t="s">
+    <row r="23" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="128">
+      <c r="I23" s="119">
         <v>5142</v>
       </c>
-      <c r="J23" s="119">
+      <c r="J23" s="110">
         <v>137</v>
       </c>
     </row>
@@ -9505,112 +9518,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82919BA3-099A-414C-AF8B-EA89BAA9CE4F}">
   <dimension ref="B1:AN133"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="116" t="s">
+    <row r="1" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="117"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="117"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="117"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="116" t="s">
+      <c r="R2" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="131"/>
       <c r="T2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="116" t="s">
+      <c r="V2" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="W2" s="117"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="116" t="s">
+      <c r="Z2" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="117"/>
+      <c r="AA2" s="131"/>
       <c r="AB2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="116" t="s">
+      <c r="AD2" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="117"/>
+      <c r="AE2" s="131"/>
       <c r="AF2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="116" t="s">
+      <c r="AH2" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="117"/>
+      <c r="AI2" s="131"/>
       <c r="AJ2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="116" t="s">
+      <c r="AL2" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="117"/>
+      <c r="AM2" s="131"/>
       <c r="AN2" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="48" t="s">
         <v>84</v>
       </c>
@@ -9693,7 +9706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="46">
         <v>127</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="48" t="s">
         <v>178</v>
       </c>
@@ -9868,7 +9881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -9951,7 +9964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F7" s="3">
         <v>2</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F8" s="3">
         <v>3</v>
       </c>
@@ -10117,7 +10130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="3">
         <v>4</v>
       </c>
@@ -10200,7 +10213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="98"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -10284,7 +10297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -10365,7 +10378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="3">
         <v>7</v>
       </c>
@@ -10443,7 +10456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="51" t="s">
         <v>97</v>
       </c>
@@ -10525,7 +10538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="95" t="s">
         <v>69</v>
       </c>
@@ -10604,7 +10617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="96" t="s">
         <v>98</v>
       </c>
@@ -10683,7 +10696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="96" t="s">
         <v>71</v>
       </c>
@@ -10762,7 +10775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>70</v>
       </c>
@@ -10841,7 +10854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="96" t="s">
         <v>88</v>
       </c>
@@ -10920,7 +10933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="96" t="s">
         <v>261</v>
       </c>
@@ -10994,7 +11007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" s="96" t="s">
         <v>99</v>
       </c>
@@ -11061,7 +11074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="96" t="s">
         <v>92</v>
       </c>
@@ -11128,7 +11141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="97" t="s">
         <v>93</v>
       </c>
@@ -11189,7 +11202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F23" s="3">
         <v>18</v>
       </c>
@@ -11241,7 +11254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="F24" s="3">
         <v>19</v>
@@ -11294,7 +11307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="F25" s="3">
         <v>20</v>
       </c>
@@ -11346,7 +11359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="3">
         <v>21</v>
       </c>
@@ -11398,7 +11411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="102" t="s">
         <v>269</v>
       </c>
@@ -11444,7 +11457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>161</v>
       </c>
@@ -11493,7 +11506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>133</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>122</v>
       </c>
@@ -11585,7 +11598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>132</v>
       </c>
@@ -11625,7 +11638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>127</v>
       </c>
@@ -11659,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>239</v>
       </c>
@@ -11693,7 +11706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F34" s="3">
         <v>29</v>
       </c>
@@ -11721,7 +11734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="3">
         <v>30</v>
       </c>
@@ -11749,7 +11762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F36" s="3">
         <v>31</v>
       </c>
@@ -11770,7 +11783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F37" s="3">
         <v>32</v>
       </c>
@@ -11792,7 +11805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F38" s="3">
         <v>33</v>
       </c>
@@ -11813,7 +11826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F39" s="3">
         <v>34</v>
       </c>
@@ -11834,7 +11847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F40" s="3">
         <v>35</v>
       </c>
@@ -11855,7 +11868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F41" s="3">
         <v>36</v>
       </c>
@@ -11876,7 +11889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F42" s="3">
         <v>37</v>
       </c>
@@ -11897,7 +11910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F43" s="3">
         <v>38</v>
       </c>
@@ -11918,7 +11931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F44" s="3">
         <v>39</v>
       </c>
@@ -11939,7 +11952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F45" s="3">
         <v>40</v>
       </c>
@@ -11960,7 +11973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F46" s="3">
         <v>41</v>
       </c>
@@ -11982,7 +11995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F47" s="9">
         <v>42</v>
       </c>
@@ -12003,7 +12016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F48" s="3">
         <v>43</v>
       </c>
@@ -12024,7 +12037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F49" s="3">
         <v>44</v>
       </c>
@@ -12045,7 +12058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F50" s="3">
         <v>45</v>
       </c>
@@ -12066,7 +12079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F51" s="3">
         <v>46</v>
       </c>
@@ -12087,7 +12100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F52" s="9">
         <v>47</v>
       </c>
@@ -12108,7 +12121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F53" s="3">
         <v>48</v>
       </c>
@@ -12129,7 +12142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F54" s="3">
         <v>49</v>
       </c>
@@ -12150,7 +12163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F55" s="3">
         <v>50</v>
       </c>
@@ -12171,7 +12184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F56" s="3">
         <v>51</v>
       </c>
@@ -12192,7 +12205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F57" s="3">
         <v>52</v>
       </c>
@@ -12214,7 +12227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F58" s="3">
         <v>53</v>
       </c>
@@ -12235,7 +12248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F59" s="9">
         <v>54</v>
       </c>
@@ -12256,7 +12269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F60" s="9">
         <v>55</v>
       </c>
@@ -12277,7 +12290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F61" s="3">
         <v>56</v>
       </c>
@@ -12298,7 +12311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F62" s="3">
         <v>57</v>
       </c>
@@ -12319,7 +12332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F63" s="3">
         <v>58</v>
       </c>
@@ -12340,7 +12353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F64" s="3">
         <v>59</v>
       </c>
@@ -12361,7 +12374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F65" s="3">
         <v>60</v>
       </c>
@@ -12382,7 +12395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F66" s="3">
         <v>61</v>
       </c>
@@ -12403,7 +12416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F67" s="9">
         <v>62</v>
       </c>
@@ -12424,7 +12437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F68" s="3">
         <v>63</v>
       </c>
@@ -12446,7 +12459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F69" s="3">
         <v>64</v>
       </c>
@@ -12467,7 +12480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F70" s="3">
         <v>65</v>
       </c>
@@ -12488,7 +12501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F71" s="3">
         <v>66</v>
       </c>
@@ -12509,7 +12522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F72" s="3">
         <v>67</v>
       </c>
@@ -12530,7 +12543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F73" s="3">
         <v>68</v>
       </c>
@@ -12551,7 +12564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F74" s="3">
         <v>69</v>
       </c>
@@ -12572,7 +12585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F75" s="3">
         <v>70</v>
       </c>
@@ -12593,7 +12606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F76" s="3">
         <v>71</v>
       </c>
@@ -12614,7 +12627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F77" s="3">
         <v>72</v>
       </c>
@@ -12635,7 +12648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F78" s="3">
         <v>73</v>
       </c>
@@ -12656,7 +12669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F79" s="3">
         <v>74</v>
       </c>
@@ -12678,7 +12691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F80" s="3">
         <v>75</v>
       </c>
@@ -12699,7 +12712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F81" s="3">
         <v>76</v>
       </c>
@@ -12720,7 +12733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F82" s="3">
         <v>77</v>
       </c>
@@ -12741,7 +12754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="3">
         <v>78</v>
       </c>
@@ -12762,7 +12775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F84" s="3">
         <v>79</v>
       </c>
@@ -12779,7 +12792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F85" s="3">
         <v>80</v>
       </c>
@@ -12796,7 +12809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F86" s="3">
         <v>81</v>
       </c>
@@ -12813,7 +12826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F87" s="3">
         <v>82</v>
       </c>
@@ -12830,7 +12843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F88" s="3">
         <v>83</v>
       </c>
@@ -12847,7 +12860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F89" s="3">
         <v>84</v>
       </c>
@@ -12864,7 +12877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F90" s="9">
         <v>85</v>
       </c>
@@ -12882,7 +12895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F91" s="3">
         <v>86</v>
       </c>
@@ -12899,7 +12912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F92" s="3">
         <v>87</v>
       </c>
@@ -12916,7 +12929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F93" s="3">
         <v>88</v>
       </c>
@@ -12933,7 +12946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F94" s="3">
         <v>89</v>
       </c>
@@ -12950,7 +12963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F95" s="3">
         <v>90</v>
       </c>
@@ -12967,7 +12980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F96" s="3">
         <v>91</v>
       </c>
@@ -12984,7 +12997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F97" s="3">
         <v>92</v>
       </c>
@@ -13001,7 +13014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F98" s="3">
         <v>93</v>
       </c>
@@ -13018,7 +13031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F99" s="3">
         <v>94</v>
       </c>
@@ -13035,7 +13048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F100" s="3">
         <v>95</v>
       </c>
@@ -13052,7 +13065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F101" s="3">
         <v>96</v>
       </c>
@@ -13070,7 +13083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F102" s="3">
         <v>97</v>
       </c>
@@ -13087,7 +13100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F103" s="3">
         <v>98</v>
       </c>
@@ -13104,7 +13117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F104" s="3">
         <v>99</v>
       </c>
@@ -13121,7 +13134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F105" s="3">
         <v>100</v>
       </c>
@@ -13138,7 +13151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F106" s="3">
         <v>101</v>
       </c>
@@ -13155,7 +13168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F107" s="3">
         <v>102</v>
       </c>
@@ -13172,7 +13185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F108" s="3">
         <v>103</v>
       </c>
@@ -13189,7 +13202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F109" s="3">
         <v>104</v>
       </c>
@@ -13206,7 +13219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F110" s="3">
         <v>105</v>
       </c>
@@ -13223,7 +13236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F111" s="3">
         <v>106</v>
       </c>
@@ -13240,7 +13253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F112" s="3">
         <v>107</v>
       </c>
@@ -13258,7 +13271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F113" s="3">
         <v>108</v>
       </c>
@@ -13275,7 +13288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F114" s="3">
         <v>109</v>
       </c>
@@ -13292,7 +13305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F115" s="3">
         <v>110</v>
       </c>
@@ -13309,7 +13322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F116" s="3">
         <v>111</v>
       </c>
@@ -13326,7 +13339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F117" s="3">
         <v>112</v>
       </c>
@@ -13343,7 +13356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F118" s="3">
         <v>113</v>
       </c>
@@ -13360,7 +13373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F119" s="3">
         <v>114</v>
       </c>
@@ -13377,7 +13390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F120" s="3">
         <v>115</v>
       </c>
@@ -13394,7 +13407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F121" s="3">
         <v>116</v>
       </c>
@@ -13411,7 +13424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F122" s="3">
         <v>117</v>
       </c>
@@ -13428,7 +13441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F123" s="3">
         <v>118</v>
       </c>
@@ -13446,7 +13459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F124" s="3">
         <v>119</v>
       </c>
@@ -13463,7 +13476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F125" s="3">
         <v>120</v>
       </c>
@@ -13480,7 +13493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F126" s="3">
         <v>121</v>
       </c>
@@ -13497,7 +13510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F127" s="3">
         <v>122</v>
       </c>
@@ -13514,7 +13527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F128" s="3">
         <v>123</v>
       </c>
@@ -13531,7 +13544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F129" s="3">
         <v>124</v>
       </c>
@@ -13548,7 +13561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F130" s="3">
         <v>125</v>
       </c>
@@ -13565,7 +13578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F131" s="3">
         <v>126</v>
       </c>
@@ -13582,7 +13595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F132" s="3">
         <v>127</v>
       </c>
@@ -13593,7 +13606,7 @@
       <c r="O132" s="37"/>
       <c r="P132" s="37"/>
     </row>
-    <row r="133" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F133" s="83" t="s">
         <v>179</v>
       </c>
@@ -13628,22 +13641,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D60CAF6-4CB0-4963-BE89-E20C75FEF9DA}">
-  <dimension ref="H10:Q16"/>
+  <dimension ref="H10:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:17" x14ac:dyDescent="0.25">
       <c r="K10" s="1"/>
     </row>
-    <row r="13" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="108" t="s">
         <v>283</v>
       </c>
@@ -13675,7 +13693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H15" s="106" t="s">
         <v>270</v>
       </c>
@@ -13707,7 +13725,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="107" t="s">
         <v>271</v>
       </c>
@@ -13737,6 +13755,11 @@
       </c>
       <c r="Q16" s="16" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Counting C&Look DB.xlsx
+++ b/Counting C&Look DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Repositories\CnLook_Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1500FD-C739-46F0-88A0-915D82C73CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE21D67-911E-43E7-8727-AD56D1ADC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with 4C and tx300. 50/50. 
@@ -73,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with 4C and tx300. 50/50. 
@@ -98,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -123,7 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -132,7 +132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -147,7 +147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -156,7 +156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -172,7 +172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -181,7 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -197,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -206,7 +206,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -222,7 +222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -231,7 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -246,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -255,7 +255,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -271,7 +271,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -280,7 +280,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -295,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -304,7 +304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -319,7 +319,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -328,7 +328,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -344,7 +344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -353,7 +353,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -369,7 +369,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -378,7 +378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -394,7 +394,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -403,7 +403,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -468,7 +468,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -477,7 +477,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with 4C and tx300. 50/50. 
@@ -493,7 +493,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -502,7 +502,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -518,7 +518,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -527,7 +527,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -542,7 +542,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -551,7 +551,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -567,7 +567,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -576,7 +576,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -592,7 +592,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -601,7 +601,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -617,7 +617,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -626,7 +626,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -641,7 +641,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -650,7 +650,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -666,7 +666,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -675,7 +675,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -690,7 +690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -699,7 +699,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. </t>
@@ -714,7 +714,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -723,7 +723,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -739,7 +739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -748,7 +748,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and 4c 50/50. 
@@ -764,7 +764,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -773,7 +773,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -789,7 +789,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -798,7 +798,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 These records were done with tx300 and eyex, 50/50. 
@@ -873,7 +873,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -882,7 +882,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The total of subjects is 128, but the subjects with names '114' and '114a' are the same child.
@@ -898,7 +898,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Lucca:</t>
         </r>
@@ -907,7 +907,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The total of subjects is 78. But the each children recorded with tx300 and eyex. So, for instance, the subjects with names '35 tx300' and '35 eyex' represents the same child.
@@ -1883,7 +1883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,19 +1911,6 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2565,13 +2552,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,16 +2574,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3799,39 +3786,39 @@
     <row r="4" spans="2:35" ht="95.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="126" t="s">
+      <c r="G8" s="129"/>
+      <c r="H8" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="126" t="s">
+      <c r="I8" s="129"/>
+      <c r="J8" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="126" t="s">
+      <c r="K8" s="129"/>
+      <c r="L8" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="126" t="s">
+      <c r="M8" s="129"/>
+      <c r="N8" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="128"/>
-      <c r="P8" s="123" t="s">
+      <c r="O8" s="130"/>
+      <c r="P8" s="124" t="s">
         <v>74</v>
       </c>
       <c r="Q8" s="125"/>
-      <c r="R8" s="123" t="s">
+      <c r="R8" s="124" t="s">
         <v>75</v>
       </c>
       <c r="S8" s="125"/>
-      <c r="T8" s="123" t="s">
+      <c r="T8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="124"/>
-      <c r="V8" s="123" t="s">
+      <c r="U8" s="126"/>
+      <c r="V8" s="124" t="s">
         <v>77</v>
       </c>
       <c r="W8" s="125"/>
@@ -7118,44 +7105,44 @@
       <c r="B89" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="126" t="s">
+      <c r="F89" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="G89" s="127"/>
-      <c r="H89" s="126" t="s">
+      <c r="G89" s="129"/>
+      <c r="H89" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="127"/>
-      <c r="J89" s="126" t="s">
+      <c r="I89" s="129"/>
+      <c r="J89" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="127"/>
-      <c r="L89" s="126" t="s">
+      <c r="K89" s="129"/>
+      <c r="L89" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="M89" s="127"/>
-      <c r="N89" s="126" t="s">
+      <c r="M89" s="129"/>
+      <c r="N89" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="O89" s="128"/>
-      <c r="P89" s="123" t="s">
+      <c r="O89" s="130"/>
+      <c r="P89" s="124" t="s">
         <v>74</v>
       </c>
       <c r="Q89" s="125"/>
-      <c r="R89" s="123" t="s">
+      <c r="R89" s="124" t="s">
         <v>75</v>
       </c>
       <c r="S89" s="125"/>
-      <c r="T89" s="123" t="s">
+      <c r="T89" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="U89" s="124"/>
-      <c r="V89" s="123" t="s">
+      <c r="U89" s="126"/>
+      <c r="V89" s="124" t="s">
         <v>77</v>
       </c>
       <c r="W89" s="125"/>
-      <c r="X89" s="129"/>
-      <c r="Y89" s="129"/>
+      <c r="X89" s="127"/>
+      <c r="Y89" s="127"/>
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
     </row>
@@ -9278,16 +9265,6 @@
     <sortCondition ref="B10:B79"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="P8:Q8"/>
@@ -9297,6 +9274,16 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9309,8 +9296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB419-1B8C-467B-87EE-1FBB4624B23C}">
   <dimension ref="H6:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9559,66 +9546,66 @@
   <sheetData>
     <row r="1" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="131"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="131"/>
+      <c r="K2" s="132"/>
       <c r="L2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="130" t="s">
+      <c r="N2" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="131"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="130" t="s">
+      <c r="R2" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="131"/>
+      <c r="S2" s="132"/>
       <c r="T2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="130" t="s">
+      <c r="V2" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="W2" s="131"/>
+      <c r="W2" s="132"/>
       <c r="X2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="130" t="s">
+      <c r="Z2" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="131"/>
+      <c r="AA2" s="132"/>
       <c r="AB2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="130" t="s">
+      <c r="AD2" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="131"/>
+      <c r="AE2" s="132"/>
       <c r="AF2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="130" t="s">
+      <c r="AH2" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="130" t="s">
+      <c r="AL2" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="131"/>
+      <c r="AM2" s="132"/>
       <c r="AN2" s="55" t="s">
         <v>86</v>
       </c>
@@ -13643,7 +13630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D60CAF6-4CB0-4963-BE89-E20C75FEF9DA}">
   <dimension ref="H10:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -13657,7 +13644,7 @@
     </row>
     <row r="12" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="123" t="s">
         <v>301</v>
       </c>
     </row>

--- a/Counting C&Look DB.xlsx
+++ b/Counting C&Look DB.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Repositories\CnLook_Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE21D67-911E-43E7-8727-AD56D1ADC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D953D6-3EF3-40CC-870C-FDF3EC53231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{3A05C7C3-5F9B-4051-AA72-D39C19BEA66A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="12" r:id="rId1"/>
     <sheet name="Tasks By ID" sheetId="15" r:id="rId2"/>
     <sheet name="Subjects" sheetId="13" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="14" r:id="rId4"/>
+    <sheet name="Number of Records" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2556,13 +2557,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,6 +2570,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3747,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E63C6D2-241C-4155-9C99-E8FACD71DC3D}">
   <dimension ref="B4:AI133"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
@@ -3786,42 +3787,42 @@
     <row r="4" spans="2:35" ht="95.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="128" t="s">
+      <c r="G8" s="128"/>
+      <c r="H8" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="128" t="s">
+      <c r="I8" s="128"/>
+      <c r="J8" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="129"/>
-      <c r="L8" s="128" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="129"/>
-      <c r="N8" s="128" t="s">
+      <c r="M8" s="128"/>
+      <c r="N8" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="130"/>
+      <c r="O8" s="129"/>
       <c r="P8" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="125"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="125"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="125"/>
       <c r="V8" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="125"/>
+      <c r="W8" s="126"/>
     </row>
     <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="51" t="s">
@@ -7105,44 +7106,44 @@
       <c r="B89" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="128" t="s">
+      <c r="F89" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="G89" s="129"/>
-      <c r="H89" s="128" t="s">
+      <c r="G89" s="128"/>
+      <c r="H89" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="129"/>
-      <c r="J89" s="128" t="s">
+      <c r="I89" s="128"/>
+      <c r="J89" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="129"/>
-      <c r="L89" s="128" t="s">
+      <c r="K89" s="128"/>
+      <c r="L89" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="M89" s="129"/>
-      <c r="N89" s="128" t="s">
+      <c r="M89" s="128"/>
+      <c r="N89" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O89" s="130"/>
+      <c r="O89" s="129"/>
       <c r="P89" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="Q89" s="125"/>
+      <c r="Q89" s="126"/>
       <c r="R89" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="S89" s="125"/>
+      <c r="S89" s="126"/>
       <c r="T89" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="U89" s="126"/>
+      <c r="U89" s="125"/>
       <c r="V89" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="W89" s="125"/>
-      <c r="X89" s="127"/>
-      <c r="Y89" s="127"/>
+      <c r="W89" s="126"/>
+      <c r="X89" s="130"/>
+      <c r="Y89" s="130"/>
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
     </row>
@@ -9265,6 +9266,16 @@
     <sortCondition ref="B10:B79"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="P8:Q8"/>
@@ -9274,16 +9285,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9296,7 +9297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB419-1B8C-467B-87EE-1FBB4624B23C}">
   <dimension ref="H6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -13631,7 +13632,7 @@
   <dimension ref="H10:Q19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13752,4 +13753,18 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DC70CA-C9E6-4C46-A670-92FC1447B456}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>